--- a/mournes-history/data.xlsx
+++ b/mournes-history/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4282" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="1567">
   <si>
     <t>Crag</t>
   </si>
@@ -4386,6 +4386,360 @@
   </si>
   <si>
     <t>Splinter</t>
+  </si>
+  <si>
+    <t>Slieve Commedagh</t>
+  </si>
+  <si>
+    <t>West Face</t>
+  </si>
+  <si>
+    <t>54.182797511865935, -5.93979344948466</t>
+  </si>
+  <si>
+    <t>Harmony Constant</t>
+  </si>
+  <si>
+    <t>54.182797511865935, -5.93979344948467</t>
+  </si>
+  <si>
+    <t>King of Joy</t>
+  </si>
+  <si>
+    <t>Jobseekers Buttress</t>
+  </si>
+  <si>
+    <t>54.18220685601569, -5.938800681839604</t>
+  </si>
+  <si>
+    <t>Jobseekers Flake</t>
+  </si>
+  <si>
+    <t>D.Carden</t>
+  </si>
+  <si>
+    <t>C.Keag</t>
+  </si>
+  <si>
+    <t>E.Quinn</t>
+  </si>
+  <si>
+    <t>54.18220685601569, -5.938800681839605</t>
+  </si>
+  <si>
+    <t>Feeling the Crunch</t>
+  </si>
+  <si>
+    <t>54.18220685601569, -5.938800681839606</t>
+  </si>
+  <si>
+    <t>Spongers Corner</t>
+  </si>
+  <si>
+    <t>Bareknuckle Buttress</t>
+  </si>
+  <si>
+    <t>54.181751754769714, -5.937270165053479</t>
+  </si>
+  <si>
+    <t>Archibald</t>
+  </si>
+  <si>
+    <t>54.181751754769714, -5.937270165053480</t>
+  </si>
+  <si>
+    <t>Born Again</t>
+  </si>
+  <si>
+    <t>54.181751754769714, -5.937270165053481</t>
+  </si>
+  <si>
+    <t>Bare Knuckle Boxer</t>
+  </si>
+  <si>
+    <t>East Slope</t>
+  </si>
+  <si>
+    <t>54.189220866837104, -5.934099146077821</t>
+  </si>
+  <si>
+    <t>Klondyke Corner</t>
+  </si>
+  <si>
+    <t>Eagle Rocks</t>
+  </si>
+  <si>
+    <t>Lower Cliffs</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000000</t>
+  </si>
+  <si>
+    <t>The Leech</t>
+  </si>
+  <si>
+    <t>E5 6c</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000001</t>
+  </si>
+  <si>
+    <t>The Thieving Magpie</t>
+  </si>
+  <si>
+    <t>T.Cooper</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000002</t>
+  </si>
+  <si>
+    <t>No Guts No Glory</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000003</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000004</t>
+  </si>
+  <si>
+    <t>Bit Part</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000005</t>
+  </si>
+  <si>
+    <t>Piton Crack</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000006</t>
+  </si>
+  <si>
+    <t>Decadent Days</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000007</t>
+  </si>
+  <si>
+    <t>Rowan Tree</t>
+  </si>
+  <si>
+    <t>B.Blakie</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000008</t>
+  </si>
+  <si>
+    <t>Resonant Flakes</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000009</t>
+  </si>
+  <si>
+    <t>Puppet</t>
+  </si>
+  <si>
+    <t>M.Hawkins</t>
+  </si>
+  <si>
+    <t>D.Murray</t>
+  </si>
+  <si>
+    <t>54.188425000000000, -5.9228110000000010</t>
+  </si>
+  <si>
+    <t>Z Route Direct</t>
+  </si>
+  <si>
+    <t>Upper Cliffs Left</t>
+  </si>
+  <si>
+    <t>54.187999000000000, -5.9225430000000000</t>
+  </si>
+  <si>
+    <t>A Bit on the Side</t>
+  </si>
+  <si>
+    <t>A.McDonald</t>
+  </si>
+  <si>
+    <t>54.187999000000000, -5.9225430000000001</t>
+  </si>
+  <si>
+    <t>Muffled Oaths</t>
+  </si>
+  <si>
+    <t>54.187999000000000, -5.9225430000000002</t>
+  </si>
+  <si>
+    <t>Arete Oriental</t>
+  </si>
+  <si>
+    <t>54.187999000000000, -5.9225430000000003</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>54.187999000000000, -5.9225430000000004</t>
+  </si>
+  <si>
+    <t>Double X</t>
+  </si>
+  <si>
+    <t>H.Porter</t>
+  </si>
+  <si>
+    <t>B.McCormick</t>
+  </si>
+  <si>
+    <t>54.187999000000000, -5.9225430000000005</t>
+  </si>
+  <si>
+    <t>The Trap</t>
+  </si>
+  <si>
+    <t>G.Maxwell</t>
+  </si>
+  <si>
+    <t>Ravens Gully</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000000</t>
+  </si>
+  <si>
+    <t>Stratocumulus</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000001</t>
+  </si>
+  <si>
+    <t>Parade</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000002</t>
+  </si>
+  <si>
+    <t>Rolling Thunder</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000003</t>
+  </si>
+  <si>
+    <t>Incandescent Blue</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000004</t>
+  </si>
+  <si>
+    <t>Chimney Wall</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000005</t>
+  </si>
+  <si>
+    <t>Raven's Gully Route</t>
+  </si>
+  <si>
+    <t>F.Martin</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000006</t>
+  </si>
+  <si>
+    <t>Lichen</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000007</t>
+  </si>
+  <si>
+    <t>Raven's Nest</t>
+  </si>
+  <si>
+    <t>R.Galway</t>
+  </si>
+  <si>
+    <t>D.McKee</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000008</t>
+  </si>
+  <si>
+    <t>Late Opening</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000009</t>
+  </si>
+  <si>
+    <t>Raven Lunatic</t>
+  </si>
+  <si>
+    <t>A/Carden</t>
+  </si>
+  <si>
+    <t>B.McBurney</t>
+  </si>
+  <si>
+    <t>Diamond Buttress</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000010</t>
+  </si>
+  <si>
+    <t>Determinate</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000011</t>
+  </si>
+  <si>
+    <t>Big Wig</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000012</t>
+  </si>
+  <si>
+    <t>4th Generation Youth</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000013</t>
+  </si>
+  <si>
+    <t>No Quarter</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000014</t>
+  </si>
+  <si>
+    <t>Severed Finger</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000015</t>
+  </si>
+  <si>
+    <t>Justin Time</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000016</t>
+  </si>
+  <si>
+    <t>Bismuth</t>
+  </si>
+  <si>
+    <t>B.Owens</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000017</t>
+  </si>
+  <si>
+    <t>Mercy Street</t>
+  </si>
+  <si>
+    <t>54.187886000000000, -5.9231650000000018</t>
+  </si>
+  <si>
+    <t>What's the Story</t>
   </si>
 </sst>
 </file>
@@ -20319,6 +20673,1176 @@
         <v>17</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F544" s="3">
+        <v>1995.0</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F545" s="3">
+        <v>1995.0</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F546" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I546" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F547" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F548" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I548" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F549" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F550" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F551" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F552" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F553" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F554" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F555" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F556" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F557" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F558" s="3">
+        <v>1950.0</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F559" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F560" s="3">
+        <v>1947.0</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F561" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F562" s="3">
+        <v>1967.0</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I562" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F563" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F564" s="3">
+        <v>1977.0</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I564" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F565" s="3">
+        <v>1978.0</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H565" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F566" s="3">
+        <v>1954.0</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F567" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H567" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F568" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H568" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I568" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F569" s="3">
+        <v>1947.0</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H569" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F570" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="H570" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F571" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F572" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F573" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H573" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F574" s="3">
+        <v>1948.0</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F575" s="3">
+        <v>1936.0</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F576" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H576" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F577" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H577" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I577" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F578" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F579" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H579" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F580" s="3">
+        <v>1971.0</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H580" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F581" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="H581" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F582" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H582" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F583" s="3">
+        <v>1988.0</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H583" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F584" s="3">
+        <v>1988.0</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H584" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F585" s="3">
+        <v>1979.0</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H585" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F586" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="H586" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F587" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H587" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F588" s="3">
+        <v>2007.0</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H588" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I588" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$J$1005"/>
   <drawing r:id="rId1"/>

--- a/mournes-history/data.xlsx
+++ b/mournes-history/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5666" uniqueCount="1933">
   <si>
     <t>Crag</t>
   </si>
@@ -4472,7 +4472,7 @@
     <t>Lower Cliffs</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000000</t>
+    <t>54.18759091760389, -5.922585917793346</t>
   </si>
   <si>
     <t>The Leech</t>
@@ -4481,7 +4481,7 @@
     <t>E5 6c</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000001</t>
+    <t>54.18759091760389, -5.922585917793347</t>
   </si>
   <si>
     <t>The Thieving Magpie</t>
@@ -4490,37 +4490,37 @@
     <t>T.Cooper</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000002</t>
+    <t>54.18759091760389, -5.922585917793348</t>
   </si>
   <si>
     <t>No Guts No Glory</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000003</t>
+    <t>54.18759091760389, -5.922585917793349</t>
   </si>
   <si>
     <t>Precipitation</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000004</t>
+    <t>54.18759091760389, -5.922585917793350</t>
   </si>
   <si>
     <t>Bit Part</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000005</t>
+    <t>54.18759091760389, -5.922585917793351</t>
   </si>
   <si>
     <t>Piton Crack</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000006</t>
+    <t>54.18759091760389, -5.922585917793352</t>
   </si>
   <si>
     <t>Decadent Days</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000007</t>
+    <t>54.18759091760389, -5.922585917793353</t>
   </si>
   <si>
     <t>Rowan Tree</t>
@@ -4529,13 +4529,13 @@
     <t>B.Blakie</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000008</t>
+    <t>54.18759091760389, -5.922585917793354</t>
   </si>
   <si>
     <t>Resonant Flakes</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000009</t>
+    <t>54.18759091760389, -5.922585917793355</t>
   </si>
   <si>
     <t>Puppet</t>
@@ -4547,7 +4547,7 @@
     <t>D.Murray</t>
   </si>
   <si>
-    <t>54.188425000000000, -5.9228110000000010</t>
+    <t>54.18759091760389, -5.922585917793356</t>
   </si>
   <si>
     <t>Z Route Direct</t>
@@ -4556,7 +4556,7 @@
     <t>Upper Cliffs Left</t>
   </si>
   <si>
-    <t>54.187999000000000, -5.9225430000000000</t>
+    <t>54.18759091760389, -5.922585917793357</t>
   </si>
   <si>
     <t>A Bit on the Side</t>
@@ -4565,25 +4565,25 @@
     <t>A.McDonald</t>
   </si>
   <si>
-    <t>54.187999000000000, -5.9225430000000001</t>
+    <t>54.18759091760389, -5.922585917793358</t>
   </si>
   <si>
     <t>Muffled Oaths</t>
   </si>
   <si>
-    <t>54.187999000000000, -5.9225430000000002</t>
+    <t>54.18759091760389, -5.922585917793359</t>
   </si>
   <si>
     <t>Arete Oriental</t>
   </si>
   <si>
-    <t>54.187999000000000, -5.9225430000000003</t>
+    <t>54.18759091760389, -5.922585917793360</t>
   </si>
   <si>
     <t>Joy</t>
   </si>
   <si>
-    <t>54.187999000000000, -5.9225430000000004</t>
+    <t>54.18759091760389, -5.922585917793361</t>
   </si>
   <si>
     <t>Double X</t>
@@ -4595,7 +4595,7 @@
     <t>B.McCormick</t>
   </si>
   <si>
-    <t>54.187999000000000, -5.9225430000000005</t>
+    <t>54.18759091760389, -5.922585917793362</t>
   </si>
   <si>
     <t>The Trap</t>
@@ -4607,37 +4607,37 @@
     <t>Ravens Gully</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000000</t>
+    <t>54.18759091760389, -5.922585917793363</t>
   </si>
   <si>
     <t>Stratocumulus</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000001</t>
+    <t>54.18759091760389, -5.922585917793364</t>
   </si>
   <si>
     <t>Parade</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000002</t>
+    <t>54.18759091760389, -5.922585917793365</t>
   </si>
   <si>
     <t>Rolling Thunder</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000003</t>
+    <t>54.18759091760389, -5.922585917793366</t>
   </si>
   <si>
     <t>Incandescent Blue</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000004</t>
+    <t>54.18759091760389, -5.922585917793367</t>
   </si>
   <si>
     <t>Chimney Wall</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000005</t>
+    <t>54.18759091760389, -5.922585917793368</t>
   </si>
   <si>
     <t>Raven's Gully Route</t>
@@ -4646,13 +4646,13 @@
     <t>F.Martin</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000006</t>
+    <t>54.18759091760389, -5.922585917793369</t>
   </si>
   <si>
     <t>Lichen</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000007</t>
+    <t>54.18759091760389, -5.922585917793370</t>
   </si>
   <si>
     <t>Raven's Nest</t>
@@ -4664,13 +4664,13 @@
     <t>D.McKee</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000008</t>
+    <t>54.18759091760389, -5.922585917793371</t>
   </si>
   <si>
     <t>Late Opening</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000009</t>
+    <t>54.18759091760389, -5.922585917793372</t>
   </si>
   <si>
     <t>Raven Lunatic</t>
@@ -4685,43 +4685,43 @@
     <t>Diamond Buttress</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000010</t>
+    <t>54.18759091760389, -5.922585917793373</t>
   </si>
   <si>
     <t>Determinate</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000011</t>
+    <t>54.18759091760389, -5.922585917793374</t>
   </si>
   <si>
     <t>Big Wig</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000012</t>
+    <t>54.18759091760389, -5.922585917793375</t>
   </si>
   <si>
     <t>4th Generation Youth</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000013</t>
+    <t>54.18759091760389, -5.922585917793376</t>
   </si>
   <si>
     <t>No Quarter</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000014</t>
+    <t>54.18759091760389, -5.922585917793377</t>
   </si>
   <si>
     <t>Severed Finger</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000015</t>
+    <t>54.18759091760389, -5.922585917793378</t>
   </si>
   <si>
     <t>Justin Time</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000016</t>
+    <t>54.18759091760389, -5.922585917793379</t>
   </si>
   <si>
     <t>Bismuth</t>
@@ -4730,16 +4730,1114 @@
     <t>B.Owens</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000017</t>
+    <t>54.18759091760389, -5.922585917793380</t>
   </si>
   <si>
     <t>Mercy Street</t>
   </si>
   <si>
-    <t>54.187886000000000, -5.9231650000000018</t>
+    <t>54.18759091760389, -5.922585917793381</t>
   </si>
   <si>
     <t>What's the Story</t>
+  </si>
+  <si>
+    <t>Jupiter Wall</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793382</t>
+  </si>
+  <si>
+    <t>S.T.D</t>
+  </si>
+  <si>
+    <t>R.Caves</t>
+  </si>
+  <si>
+    <t>T.McClatchey</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793383</t>
+  </si>
+  <si>
+    <t>Ding-a-Ling</t>
+  </si>
+  <si>
+    <t>A.Devlin</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793384</t>
+  </si>
+  <si>
+    <t>Change the Script</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793385</t>
+  </si>
+  <si>
+    <t>Change the Pants</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793386</t>
+  </si>
+  <si>
+    <t>Bonzo</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793387</t>
+  </si>
+  <si>
+    <t>Greenpeace</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793388</t>
+  </si>
+  <si>
+    <t>Starlight</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793389</t>
+  </si>
+  <si>
+    <t>Snitter</t>
+  </si>
+  <si>
+    <t>M.SMith</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793390</t>
+  </si>
+  <si>
+    <t>Arctic Dreams</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793391</t>
+  </si>
+  <si>
+    <t>The Proving Ground</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793392</t>
+  </si>
+  <si>
+    <t>Castelatus</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793393</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793394</t>
+  </si>
+  <si>
+    <t>Milky Way</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793395</t>
+  </si>
+  <si>
+    <t>Galaxy Quest</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793396</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793397</t>
+  </si>
+  <si>
+    <t>Solstice</t>
+  </si>
+  <si>
+    <t>Comet Buttress</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793398</t>
+  </si>
+  <si>
+    <t>Anniversary Buttress</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793399</t>
+  </si>
+  <si>
+    <t>Crystal Fountains</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793400</t>
+  </si>
+  <si>
+    <t>Anniversary Route</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793401</t>
+  </si>
+  <si>
+    <t>Dirt Bird</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793402</t>
+  </si>
+  <si>
+    <t>New Boots and Panties</t>
+  </si>
+  <si>
+    <t>H.Walker</t>
+  </si>
+  <si>
+    <t>West Arete</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793403</t>
+  </si>
+  <si>
+    <t>Dagger Buttress</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793404</t>
+  </si>
+  <si>
+    <t>Cannons in the Rain</t>
+  </si>
+  <si>
+    <t>G.McMurray</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793405</t>
+  </si>
+  <si>
+    <t>Cannons in the Rain - Left Hand Finish</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793406</t>
+  </si>
+  <si>
+    <t>Stalin</t>
+  </si>
+  <si>
+    <t>R.Mowll</t>
+  </si>
+  <si>
+    <t>G.Reilly</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793407</t>
+  </si>
+  <si>
+    <t>Malenkov Variation</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793408</t>
+  </si>
+  <si>
+    <t>The Dagger</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793409</t>
+  </si>
+  <si>
+    <t>Trident Left</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793410</t>
+  </si>
+  <si>
+    <t>Trident Central</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793411</t>
+  </si>
+  <si>
+    <t>Trident Right</t>
+  </si>
+  <si>
+    <t>54.18759091760389, -5.922585917793412</t>
+  </si>
+  <si>
+    <t>Xolob</t>
+  </si>
+  <si>
+    <t>G.Cairns</t>
+  </si>
+  <si>
+    <t>Annalong Buttress</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418162</t>
+  </si>
+  <si>
+    <t>Bristly</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418163</t>
+  </si>
+  <si>
+    <t>Sherpa Conifer</t>
+  </si>
+  <si>
+    <t>J.Madill</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418164</t>
+  </si>
+  <si>
+    <t>Cum Marte</t>
+  </si>
+  <si>
+    <t>R.A.McCourt</t>
+  </si>
+  <si>
+    <t>A.Matthews</t>
+  </si>
+  <si>
+    <t>R.Cox</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418165</t>
+  </si>
+  <si>
+    <t>Hanging Corner</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418166</t>
+  </si>
+  <si>
+    <t>Bilberry Bhutia</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418167</t>
+  </si>
+  <si>
+    <t>Disrepancy</t>
+  </si>
+  <si>
+    <t>C.Wray</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418168</t>
+  </si>
+  <si>
+    <t>Thin Crack</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418169</t>
+  </si>
+  <si>
+    <t>Stella Blue</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418170</t>
+  </si>
+  <si>
+    <t>Big Daryl</t>
+  </si>
+  <si>
+    <t>R.McNeill</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418171</t>
+  </si>
+  <si>
+    <t>Warsaw Convention</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418172</t>
+  </si>
+  <si>
+    <t>P is for Paddy</t>
+  </si>
+  <si>
+    <t>P.Gargan</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418173</t>
+  </si>
+  <si>
+    <t>Minerva</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418174</t>
+  </si>
+  <si>
+    <t>Lacuna</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418175</t>
+  </si>
+  <si>
+    <t>Mystery Games</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418176</t>
+  </si>
+  <si>
+    <t>Spanish Flea</t>
+  </si>
+  <si>
+    <t>W.Martin</t>
+  </si>
+  <si>
+    <t>B.Hedley</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418177</t>
+  </si>
+  <si>
+    <t>Springtime</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418178</t>
+  </si>
+  <si>
+    <t>South Route</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418179</t>
+  </si>
+  <si>
+    <t>Britton's Route</t>
+  </si>
+  <si>
+    <t>K.Britton</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418180</t>
+  </si>
+  <si>
+    <t>No Brain No Pain</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418181</t>
+  </si>
+  <si>
+    <t>Mind Me on White</t>
+  </si>
+  <si>
+    <t>M.Aughey</t>
+  </si>
+  <si>
+    <t>54.17600726490838, -5.935046713418182</t>
+  </si>
+  <si>
+    <t>Double Up on Orange</t>
+  </si>
+  <si>
+    <t>J.Crowley</t>
+  </si>
+  <si>
+    <t>Chimney Rock</t>
+  </si>
+  <si>
+    <t>Carr's Face</t>
+  </si>
+  <si>
+    <t>54.16716269338862, -5.907464595529522</t>
+  </si>
+  <si>
+    <t>Catwalk</t>
+  </si>
+  <si>
+    <t>54.16716269338862, -5.907464595529523</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>54.16716269338862, -5.907464595529524</t>
+  </si>
+  <si>
+    <t>M.O.T</t>
+  </si>
+  <si>
+    <t>Hare's Castle</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884079</t>
+  </si>
+  <si>
+    <t>Pieces of April</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884080</t>
+  </si>
+  <si>
+    <t>No Footprints</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884081</t>
+  </si>
+  <si>
+    <t>Block Route</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884082</t>
+  </si>
+  <si>
+    <t>Thin Arete</t>
+  </si>
+  <si>
+    <t>D.Agnew</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884083</t>
+  </si>
+  <si>
+    <t>Third Party</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884084</t>
+  </si>
+  <si>
+    <t>Allsorts</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884085</t>
+  </si>
+  <si>
+    <t>Allsorts Direct Finish</t>
+  </si>
+  <si>
+    <t>R.Archer</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884086</t>
+  </si>
+  <si>
+    <t>Hidden Agenda</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884087</t>
+  </si>
+  <si>
+    <t>Taco Bell</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884088</t>
+  </si>
+  <si>
+    <t>Duet</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884089</t>
+  </si>
+  <si>
+    <t>Hellfire Left-Hand</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884090</t>
+  </si>
+  <si>
+    <t>Mother's Pride</t>
+  </si>
+  <si>
+    <t>J.Codling</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884091</t>
+  </si>
+  <si>
+    <t>Hellfire Corner</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884092</t>
+  </si>
+  <si>
+    <t>Smudges Doom</t>
+  </si>
+  <si>
+    <t>S.McKay</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884093</t>
+  </si>
+  <si>
+    <t>Biggles</t>
+  </si>
+  <si>
+    <t>54.16032448479307, -5.942703347884094</t>
+  </si>
+  <si>
+    <t>All Quiet</t>
+  </si>
+  <si>
+    <t>Slieve Bearnagh</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248862</t>
+  </si>
+  <si>
+    <t>Belly Roll</t>
+  </si>
+  <si>
+    <t>N.Capper</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248863</t>
+  </si>
+  <si>
+    <t>Hot Cakes</t>
+  </si>
+  <si>
+    <t>M.Stitt</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248864</t>
+  </si>
+  <si>
+    <t>Hot Cross Buns</t>
+  </si>
+  <si>
+    <t>J.Seeds</t>
+  </si>
+  <si>
+    <t>I.Wilkinson</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248865</t>
+  </si>
+  <si>
+    <t>Torture Chamber</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248866</t>
+  </si>
+  <si>
+    <t>Wounded Knee</t>
+  </si>
+  <si>
+    <t>S.Fitzpatrick</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248867</t>
+  </si>
+  <si>
+    <t>Chinook</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248868</t>
+  </si>
+  <si>
+    <t>The Rage of Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>54.18657854197514, -5.98593095248869</t>
+  </si>
+  <si>
+    <t>Little Creatures</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191329</t>
+  </si>
+  <si>
+    <t>Blistering Bill</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191330</t>
+  </si>
+  <si>
+    <t>Solitary Standing</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191331</t>
+  </si>
+  <si>
+    <t>Toewrecker</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191332</t>
+  </si>
+  <si>
+    <t>Ballachulish</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191333</t>
+  </si>
+  <si>
+    <t>The Shadowline</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191334</t>
+  </si>
+  <si>
+    <t>Private Investigation</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191335</t>
+  </si>
+  <si>
+    <t>The Body Electric</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191336</t>
+  </si>
+  <si>
+    <t>Work Party</t>
+  </si>
+  <si>
+    <t>K.Clauss</t>
+  </si>
+  <si>
+    <t>B.Kennedy</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191337</t>
+  </si>
+  <si>
+    <t>Small Beer</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191338</t>
+  </si>
+  <si>
+    <t>Romance Dance</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191339</t>
+  </si>
+  <si>
+    <t>Alice In Wonderland</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191340</t>
+  </si>
+  <si>
+    <t>The Mission</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191341</t>
+  </si>
+  <si>
+    <t>The Witness</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191342</t>
+  </si>
+  <si>
+    <t>Morning Dew</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191343</t>
+  </si>
+  <si>
+    <t>Instigator</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191344</t>
+  </si>
+  <si>
+    <t>Voss</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191345</t>
+  </si>
+  <si>
+    <t>Puppet on a String</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191346</t>
+  </si>
+  <si>
+    <t>Marionette</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191347</t>
+  </si>
+  <si>
+    <t>Alberich's Curse</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191348</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191349</t>
+  </si>
+  <si>
+    <t>Hymns to the Silence</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191350</t>
+  </si>
+  <si>
+    <t>Summit Sheugh</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191351</t>
+  </si>
+  <si>
+    <t>Manacles</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191352</t>
+  </si>
+  <si>
+    <t>Grumphy's Groove</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191353</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191354</t>
+  </si>
+  <si>
+    <t>Endgame</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191355</t>
+  </si>
+  <si>
+    <t>Californication</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191356</t>
+  </si>
+  <si>
+    <t>Kittyhawk</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191357</t>
+  </si>
+  <si>
+    <t>Lady Rose</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191358</t>
+  </si>
+  <si>
+    <t>Edelweiss</t>
+  </si>
+  <si>
+    <t>S.Smith</t>
+  </si>
+  <si>
+    <t>54.1840895886925, -5.988494461191359</t>
+  </si>
+  <si>
+    <t>Idlewild</t>
+  </si>
+  <si>
+    <t>Far West Tor</t>
+  </si>
+  <si>
+    <t>54.183117431581195, -5.989167561179739</t>
+  </si>
+  <si>
+    <t>Doan View</t>
+  </si>
+  <si>
+    <t>54.183117431581195, -5.989167561179740</t>
+  </si>
+  <si>
+    <t>Get Rhythm</t>
+  </si>
+  <si>
+    <t>54.183117431581195, -5.989167561179741</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>West Tor</t>
+  </si>
+  <si>
+    <t>54.18352808694242, -5.988680637783862</t>
+  </si>
+  <si>
+    <t>Continuation Tor Route</t>
+  </si>
+  <si>
+    <t>54.18352808694242, -5.988680637783863</t>
+  </si>
+  <si>
+    <t>East Face Route</t>
+  </si>
+  <si>
+    <t>54.18352808694242, -5.988680637783864</t>
+  </si>
+  <si>
+    <t>Crazy Horse</t>
+  </si>
+  <si>
+    <t>54.18352808694242, -5.988680637783865</t>
+  </si>
+  <si>
+    <t>Rock Suppository</t>
+  </si>
+  <si>
+    <t>54.18352808694242, -5.988680637783866</t>
+  </si>
+  <si>
+    <t>Callisto</t>
+  </si>
+  <si>
+    <t>Bearnagh Slabs</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038287</t>
+  </si>
+  <si>
+    <t>Directissima</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038288</t>
+  </si>
+  <si>
+    <t>Zen</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038289</t>
+  </si>
+  <si>
+    <t>Crooked Chimney</t>
+  </si>
+  <si>
+    <t>S.Graham</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038290</t>
+  </si>
+  <si>
+    <t>Grand Central</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038291</t>
+  </si>
+  <si>
+    <t>Innocence</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038292</t>
+  </si>
+  <si>
+    <t>Peter De Bernac</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038293</t>
+  </si>
+  <si>
+    <t>North Wall Climb</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038294</t>
+  </si>
+  <si>
+    <t>High Anxiety</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038295</t>
+  </si>
+  <si>
+    <t>Buttercup Summers</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038296</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038297</t>
+  </si>
+  <si>
+    <t>Cresent</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038298</t>
+  </si>
+  <si>
+    <t>Yosemite Days</t>
+  </si>
+  <si>
+    <t>C.Roberts</t>
+  </si>
+  <si>
+    <t>S.Smeltzer</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038299</t>
+  </si>
+  <si>
+    <t>Greased Lightning</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038300</t>
+  </si>
+  <si>
+    <t>Apocalypse Now</t>
+  </si>
+  <si>
+    <t>54.18606536858571, -5.993918450038301</t>
+  </si>
+  <si>
+    <t>Girdle Traverse</t>
+  </si>
+  <si>
+    <t>Quarry</t>
+  </si>
+  <si>
+    <t>54.1921324700555, -5.982667254232367</t>
+  </si>
+  <si>
+    <t>Rachel's Route</t>
+  </si>
+  <si>
+    <t>J.Heron</t>
+  </si>
+  <si>
+    <t>Meelmore Buttress</t>
+  </si>
+  <si>
+    <t>54.189453465632106, -5.995045918616394</t>
+  </si>
+  <si>
+    <t>Queasy</t>
+  </si>
+  <si>
+    <t>D.Mageean</t>
+  </si>
+  <si>
+    <t>54.189453465632106, -5.995045918616395</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>Slievenaglough Buttress</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922019</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>P.Robinson</t>
+  </si>
+  <si>
+    <t>G.Watts</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922020</t>
+  </si>
+  <si>
+    <t>Whisper End</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922021</t>
+  </si>
+  <si>
+    <t>Macho Man</t>
+  </si>
+  <si>
+    <t>D.Kirkwood</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922022</t>
+  </si>
+  <si>
+    <t>It's a 5a Mantle into Heaven Brother</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922023</t>
+  </si>
+  <si>
+    <t>Bogey-Man</t>
+  </si>
+  <si>
+    <t>M.Caffery</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922024</t>
+  </si>
+  <si>
+    <t>Vice-Man</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922025</t>
+  </si>
+  <si>
+    <t>Bolt-Man</t>
+  </si>
+  <si>
+    <t>54.192160570591795, -5.974262827922026</t>
+  </si>
+  <si>
+    <t>A Vulgar Display of Power</t>
+  </si>
+  <si>
+    <t>S.Fell</t>
+  </si>
+  <si>
+    <t>Spellack</t>
+  </si>
+  <si>
+    <t>Cabin Cruise Buttress</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524354</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524355</t>
+  </si>
+  <si>
+    <t>Half Baked</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524356</t>
+  </si>
+  <si>
+    <t>Leeward</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524357</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524358</t>
+  </si>
+  <si>
+    <t>Fear and Trembling</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524359</t>
+  </si>
+  <si>
+    <t>Cabin Cruise</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524360</t>
+  </si>
+  <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>54.197187440237606, -5.989316622524361</t>
+  </si>
+  <si>
+    <t>La Longue Carabine</t>
+  </si>
+  <si>
+    <t>Spellack Gully</t>
+  </si>
+  <si>
+    <t>54.19756558812227, -5.990384141643589</t>
+  </si>
+  <si>
+    <t>Matain</t>
   </si>
 </sst>
 </file>
@@ -21843,6 +22941,3978 @@
         <v>327</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F589" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I589" s="3" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F590" s="3">
+        <v>1982.0</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="H590" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I590" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F591" s="3">
+        <v>1997.0</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H591" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F592" s="3">
+        <v>2007.0</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H592" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I592" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F593" s="3">
+        <v>1982.0</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="I593" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F594" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H594" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F595" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H595" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F596" s="3">
+        <v>1982.0</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H596" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I596" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F597" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H597" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F598" s="3">
+        <v>2007.0</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H598" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I598" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F599" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F600" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H600" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F601" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F602" s="3">
+        <v>2006.0</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F603" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F604" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F605" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F606" s="3">
+        <v>2004.0</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F607" s="3">
+        <v>1982.0</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F608" s="3">
+        <v>2004.0</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F609" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F610" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F611" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F612" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F613" s="3">
+        <v>1953.0</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F614" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F615" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F616" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F617" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F618" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H618" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F619" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F620" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F621" s="3">
+        <v>1952.0</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H621" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F622" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H622" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I622" s="3" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F623" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H623" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F624" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F625" s="3">
+        <v>1968.0</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F626" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H626" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F627" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H627" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F628" s="3">
+        <v>1983.0</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H628" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I628" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F629" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F630" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F631" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F632" s="3">
+        <v>1980.0</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H632" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F633" s="3">
+        <v>1996.0</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H633" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F634" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H634" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I634" s="3" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F635" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H635" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F636" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H636" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F637" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H637" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F638" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F639" s="3">
+        <v>1983.0</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I639" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F640" s="3">
+        <v>1983.0</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F641" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F642" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F643" s="3">
+        <v>1996.0</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F644" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F645" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F646" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="I646" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F647" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F648" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F649" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="I649" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F650" s="3">
+        <v>1980.0</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F651" s="3">
+        <v>1996.0</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F652" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F653" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F654" s="3">
+        <v>1979.0</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F655" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I655" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F656" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F657" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F658" s="3">
+        <v>1980.0</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F659" s="3">
+        <v>1978.0</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F660" s="3">
+        <v>1936.0</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I660" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F661" s="3">
+        <v>1975.0</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F662" s="3">
+        <v>1989.0</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F663" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F664" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I664" s="3" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F665" s="3">
+        <v>1971.0</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F666" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F667" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I667" s="3" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F668" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H668" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F669" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I669" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F670" s="3">
+        <v>1967.0</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="H670" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F671" s="3">
+        <v>1976.0</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H671" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F672" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H672" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I672" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F673" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H673" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F674" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H674" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I674" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F675" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H675" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I675" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F676" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H676" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F677" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H677" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I677" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F678" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H678" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F679" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F680" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F681" s="3">
+        <v>1982.0</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H681" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F682" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H682" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F683" s="3">
+        <v>1996.0</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F684" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F685" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F686" s="3">
+        <v>1996.0</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F687" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F688" s="3">
+        <v>1991.0</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H688" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F689" s="3">
+        <v>1955.0</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H689" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F690" s="3">
+        <v>1978.0</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F691" s="3">
+        <v>1978.0</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F692" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H692" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F693" s="3">
+        <v>1999.0</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H693" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F694" s="3">
+        <v>1999.0</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="H694" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F695" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H695" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F696" s="3">
+        <v>1971.0</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F697" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F698" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H698" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F699" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F700" s="3">
+        <v>1988.0</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H700" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F701" s="3">
+        <v>1988.0</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H701" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F702" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F703" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F704" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H704" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F705" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H705" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F706" s="3">
+        <v>1988.0</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F707" s="3">
+        <v>1967.0</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H707" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F708" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H708" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F709" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H709" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I709" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F710" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F711" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H711" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I711" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F712" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H712" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I712" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F713" s="3">
+        <v>1950.0</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H713" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F714" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H714" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F715" s="3">
+        <v>1995.0</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H715" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F716" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H716" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F717" s="3">
+        <v>1979.0</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H717" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F718" s="3">
+        <v>1982.0</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H718" s="3" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F719" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H719" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D720" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F720" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F721" s="3">
+        <v>1967.0</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H721" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D722" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F722" s="3">
+        <v>1997.0</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F723" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H723" s="3" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F724" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H724" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F725" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H725" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I725" s="3" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F726" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H726" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I726" s="3" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F727" s="3">
+        <v>1979.0</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H727" s="3" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F728" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H728" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F729" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H729" s="3" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F730" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H730" s="3" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F731" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H731" s="3" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F732" s="3">
+        <v>2007.0</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H732" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I732" s="3" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F733" s="3">
+        <v>1900.0</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F734" s="3">
+        <v>2006.0</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H734" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F735" s="3">
+        <v>1975.0</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H735" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I735" s="3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F736" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H736" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F737" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H737" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F738" s="3">
+        <v>1972.0</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H738" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I738" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F739" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H739" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F740" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H740" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F741" s="3">
+        <v>1967.0</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H741" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$J$1005"/>
   <drawing r:id="rId1"/>

--- a/mournes-history/data.xlsx
+++ b/mournes-history/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8186" uniqueCount="2630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8315" uniqueCount="2656">
   <si>
     <t>Crag</t>
   </si>
@@ -7841,81 +7841,153 @@
     <t>D.England</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514923</t>
+  </si>
+  <si>
     <t>Corpse Alley</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514924</t>
+  </si>
+  <si>
     <t>Dead End Buttress</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514925</t>
+  </si>
+  <si>
     <t>Motor Cycle Mania</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514926</t>
+  </si>
+  <si>
     <t>Sammy Higgins</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514927</t>
+  </si>
+  <si>
     <t>Great Corner</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514928</t>
+  </si>
+  <si>
     <t>Cookstown Cultchy</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514929</t>
+  </si>
+  <si>
     <t>Lassara Grooves</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514930</t>
+  </si>
+  <si>
     <t>Wet Saturday</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514931</t>
+  </si>
+  <si>
     <t>Cretin's Groove</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514932</t>
+  </si>
+  <si>
     <t>Fool on a Hill</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514933</t>
+  </si>
+  <si>
     <t>Surplomb Sundae</t>
   </si>
   <si>
     <t>H.J.Kerr</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514934</t>
+  </si>
+  <si>
     <t>The Links</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514935</t>
+  </si>
+  <si>
     <t>Tullamona Cracks</t>
   </si>
   <si>
     <t>P.McClenaghan</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514936</t>
+  </si>
+  <si>
     <t>Funk</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514937</t>
+  </si>
+  <si>
     <t>Fanta</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514938</t>
+  </si>
+  <si>
     <t>Southern Comfort</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514939</t>
+  </si>
+  <si>
     <t>Abrasion</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514940</t>
+  </si>
+  <si>
     <t>Social Disease</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514941</t>
+  </si>
+  <si>
     <t>The Pervert</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514942</t>
+  </si>
+  <si>
     <t>Alcoholic Sandstorm</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514943</t>
+  </si>
+  <si>
     <t>Honest to God</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514944</t>
+  </si>
+  <si>
     <t>Early Birds</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514945</t>
+  </si>
+  <si>
     <t>Bird Leg Buttress</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514946</t>
+  </si>
+  <si>
     <t>Bilbo</t>
   </si>
   <si>
@@ -7925,7 +7997,13 @@
     <t>D.Gibson</t>
   </si>
   <si>
+    <t>54.14051559013687, -6.094704855514947</t>
+  </si>
+  <si>
     <t>Broze Boise</t>
+  </si>
+  <si>
+    <t>54.14051559013687, -6.094704855514948</t>
   </si>
   <si>
     <t>Broze-Bilbo Traverse</t>
@@ -37087,6 +37165,9 @@
       <c r="H1006" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="J1006" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="3" t="s">
@@ -37113,6 +37194,9 @@
       <c r="H1007" s="3" t="s">
         <v>2545</v>
       </c>
+      <c r="J1007" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="3" t="s">
@@ -37139,6 +37223,9 @@
       <c r="H1008" s="3" t="s">
         <v>634</v>
       </c>
+      <c r="J1008" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="3" t="s">
@@ -37165,6 +37252,9 @@
       <c r="H1009" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="J1009" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="3" t="s">
@@ -37188,6 +37278,9 @@
       <c r="G1010" s="3" t="s">
         <v>2552</v>
       </c>
+      <c r="J1010" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="3" t="s">
@@ -37214,6 +37307,9 @@
       <c r="H1011" s="3" t="s">
         <v>575</v>
       </c>
+      <c r="J1011" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="3" t="s">
@@ -37240,6 +37336,9 @@
       <c r="H1012" s="3" t="s">
         <v>1482</v>
       </c>
+      <c r="J1012" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="3" t="s">
@@ -37266,6 +37365,9 @@
       <c r="H1013" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="J1013" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="3" t="s">
@@ -37292,6 +37394,9 @@
       <c r="H1014" s="3" t="s">
         <v>634</v>
       </c>
+      <c r="J1014" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="3" t="s">
@@ -37315,6 +37420,9 @@
       <c r="G1015" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="J1015" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="3" t="s">
@@ -37338,6 +37446,9 @@
       <c r="G1016" s="3" t="s">
         <v>2565</v>
       </c>
+      <c r="J1016" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="3" t="s">
@@ -37364,6 +37475,9 @@
       <c r="H1017" s="3" t="s">
         <v>698</v>
       </c>
+      <c r="J1017" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="3" t="s">
@@ -37390,6 +37504,9 @@
       <c r="H1018" s="3" t="s">
         <v>2571</v>
       </c>
+      <c r="J1018" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="3" t="s">
@@ -37416,6 +37533,9 @@
       <c r="H1019" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="J1019" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="3" t="s">
@@ -37439,6 +37559,9 @@
       <c r="G1020" s="3" t="s">
         <v>634</v>
       </c>
+      <c r="J1020" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="3" t="s">
@@ -37465,6 +37588,9 @@
       <c r="H1021" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="J1021" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="3" t="s">
@@ -37491,6 +37617,9 @@
       <c r="H1022" s="3" t="s">
         <v>663</v>
       </c>
+      <c r="J1022" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="3" t="s">
@@ -37517,6 +37646,9 @@
       <c r="H1023" s="3" t="s">
         <v>2582</v>
       </c>
+      <c r="J1023" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="3" t="s">
@@ -37543,6 +37675,9 @@
       <c r="H1024" s="3" t="s">
         <v>706</v>
       </c>
+      <c r="J1024" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="3" t="s">
@@ -37569,6 +37704,9 @@
       <c r="H1025" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="J1025" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="3" t="s">
@@ -37595,6 +37733,9 @@
       <c r="H1026" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="J1026" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="3" t="s">
@@ -37621,6 +37762,9 @@
       <c r="H1027" s="3" t="s">
         <v>1679</v>
       </c>
+      <c r="J1027" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="3" t="s">
@@ -37644,6 +37788,9 @@
       <c r="G1028" s="3" t="s">
         <v>1247</v>
       </c>
+      <c r="J1028" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="3" t="s">
@@ -37670,6 +37817,9 @@
       <c r="H1029" s="3" t="s">
         <v>2595</v>
       </c>
+      <c r="J1029" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="3" t="s">
@@ -37699,10 +37849,22 @@
       <c r="I1030" s="3" t="s">
         <v>2599</v>
       </c>
+      <c r="J1030" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1031">
+      <c r="A1031" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1031" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1031" s="3" t="s">
+        <v>2600</v>
+      </c>
       <c r="D1031" s="3" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="E1031" s="3" t="s">
         <v>14</v>
@@ -37719,10 +37881,22 @@
       <c r="I1031" s="3" t="s">
         <v>860</v>
       </c>
+      <c r="J1031" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1032">
+      <c r="A1032" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1032" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1032" s="3" t="s">
+        <v>2602</v>
+      </c>
       <c r="D1032" s="3" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="E1032" s="3" t="s">
         <v>14</v>
@@ -37736,10 +37910,22 @@
       <c r="H1032" s="3" t="s">
         <v>860</v>
       </c>
+      <c r="J1032" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1033">
+      <c r="A1033" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1033" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1033" s="3" t="s">
+        <v>2604</v>
+      </c>
       <c r="D1033" s="3" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="E1033" s="3" t="s">
         <v>67</v>
@@ -37753,10 +37939,22 @@
       <c r="H1033" s="3" t="s">
         <v>860</v>
       </c>
+      <c r="J1033" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1034">
+      <c r="A1034" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1034" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1034" s="3" t="s">
+        <v>2606</v>
+      </c>
       <c r="D1034" s="3" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="E1034" s="3" t="s">
         <v>14</v>
@@ -37770,10 +37968,22 @@
       <c r="H1034" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="J1034" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1035">
+      <c r="A1035" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1035" s="3" t="s">
+        <v>2608</v>
+      </c>
       <c r="D1035" s="3" t="s">
-        <v>2604</v>
+        <v>2609</v>
       </c>
       <c r="E1035" s="3" t="s">
         <v>450</v>
@@ -37790,10 +38000,22 @@
       <c r="I1035" s="3" t="s">
         <v>663</v>
       </c>
+      <c r="J1035" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1036">
+      <c r="A1036" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1036" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1036" s="3" t="s">
+        <v>2610</v>
+      </c>
       <c r="D1036" s="3" t="s">
-        <v>2605</v>
+        <v>2611</v>
       </c>
       <c r="E1036" s="3" t="s">
         <v>22</v>
@@ -37807,10 +38029,22 @@
       <c r="H1036" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="J1036" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1037">
+      <c r="A1037" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1037" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1037" s="3" t="s">
+        <v>2612</v>
+      </c>
       <c r="D1037" s="3" t="s">
-        <v>2606</v>
+        <v>2613</v>
       </c>
       <c r="E1037" s="3" t="s">
         <v>25</v>
@@ -37824,10 +38058,22 @@
       <c r="H1037" s="3" t="s">
         <v>670</v>
       </c>
+      <c r="J1037" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1038">
+      <c r="A1038" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1038" s="3" t="s">
+        <v>2614</v>
+      </c>
       <c r="D1038" s="3" t="s">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="E1038" s="3" t="s">
         <v>59</v>
@@ -37841,10 +38087,22 @@
       <c r="H1038" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="J1038" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1039">
+      <c r="A1039" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1039" s="3" t="s">
+        <v>2616</v>
+      </c>
       <c r="D1039" s="3" t="s">
-        <v>2608</v>
+        <v>2617</v>
       </c>
       <c r="E1039" s="3" t="s">
         <v>14</v>
@@ -37858,10 +38116,22 @@
       <c r="H1039" s="3" t="s">
         <v>2046</v>
       </c>
+      <c r="J1039" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1040">
+      <c r="A1040" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1040" s="3" t="s">
+        <v>2618</v>
+      </c>
       <c r="D1040" s="3" t="s">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="E1040" s="3" t="s">
         <v>99</v>
@@ -37875,10 +38145,22 @@
       <c r="H1040" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="J1040" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1041">
+      <c r="A1041" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1041" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1041" s="3" t="s">
+        <v>2620</v>
+      </c>
       <c r="D1041" s="3" t="s">
-        <v>2610</v>
+        <v>2621</v>
       </c>
       <c r="E1041" s="3" t="s">
         <v>14</v>
@@ -37887,15 +38169,27 @@
         <v>1976.0</v>
       </c>
       <c r="G1041" s="3" t="s">
-        <v>2611</v>
+        <v>2622</v>
       </c>
       <c r="H1041" s="3" t="s">
         <v>701</v>
       </c>
+      <c r="J1041" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1042">
+      <c r="A1042" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1042" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1042" s="3" t="s">
+        <v>2623</v>
+      </c>
       <c r="D1042" s="3" t="s">
-        <v>2612</v>
+        <v>2624</v>
       </c>
       <c r="E1042" s="3" t="s">
         <v>89</v>
@@ -37909,10 +38203,22 @@
       <c r="H1042" s="3" t="s">
         <v>680</v>
       </c>
+      <c r="J1042" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1043">
+      <c r="A1043" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1043" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1043" s="3" t="s">
+        <v>2625</v>
+      </c>
       <c r="D1043" s="3" t="s">
-        <v>2613</v>
+        <v>2626</v>
       </c>
       <c r="E1043" s="3" t="s">
         <v>14</v>
@@ -37921,7 +38227,7 @@
         <v>1981.0</v>
       </c>
       <c r="G1043" s="3" t="s">
-        <v>2614</v>
+        <v>2627</v>
       </c>
       <c r="H1043" s="3" t="s">
         <v>969</v>
@@ -37929,10 +38235,22 @@
       <c r="I1043" s="3" t="s">
         <v>235</v>
       </c>
+      <c r="J1043" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1044">
+      <c r="A1044" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1044" s="3" t="s">
+        <v>2628</v>
+      </c>
       <c r="D1044" s="3" t="s">
-        <v>2615</v>
+        <v>2629</v>
       </c>
       <c r="E1044" s="3" t="s">
         <v>78</v>
@@ -37946,10 +38264,22 @@
       <c r="H1044" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="J1044" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1045">
+      <c r="A1045" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1045" s="3" t="s">
+        <v>2630</v>
+      </c>
       <c r="D1045" s="3" t="s">
-        <v>2616</v>
+        <v>2631</v>
       </c>
       <c r="E1045" s="3" t="s">
         <v>36</v>
@@ -37963,10 +38293,22 @@
       <c r="H1045" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="J1045" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1046">
+      <c r="A1046" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1046" s="3" t="s">
+        <v>2632</v>
+      </c>
       <c r="D1046" s="3" t="s">
-        <v>2617</v>
+        <v>2633</v>
       </c>
       <c r="E1046" s="3" t="s">
         <v>29</v>
@@ -37980,10 +38322,22 @@
       <c r="H1046" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="J1046" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1047">
+      <c r="A1047" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1047" s="3" t="s">
+        <v>2634</v>
+      </c>
       <c r="D1047" s="3" t="s">
-        <v>2618</v>
+        <v>2635</v>
       </c>
       <c r="E1047" s="3" t="s">
         <v>14</v>
@@ -38000,10 +38354,22 @@
       <c r="I1047" s="3" t="s">
         <v>1516</v>
       </c>
+      <c r="J1047" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1048">
+      <c r="A1048" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1048" s="3" t="s">
+        <v>2636</v>
+      </c>
       <c r="D1048" s="3" t="s">
-        <v>2619</v>
+        <v>2637</v>
       </c>
       <c r="E1048" s="3" t="s">
         <v>94</v>
@@ -38020,10 +38386,22 @@
       <c r="I1048" s="3" t="s">
         <v>1574</v>
       </c>
+      <c r="J1048" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1049">
+      <c r="A1049" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1049" s="3" t="s">
+        <v>2638</v>
+      </c>
       <c r="D1049" s="3" t="s">
-        <v>2620</v>
+        <v>2639</v>
       </c>
       <c r="E1049" s="3" t="s">
         <v>14</v>
@@ -38037,10 +38415,22 @@
       <c r="H1049" s="3" t="s">
         <v>860</v>
       </c>
+      <c r="J1049" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1050">
+      <c r="A1050" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1050" s="3" t="s">
+        <v>2640</v>
+      </c>
       <c r="D1050" s="3" t="s">
-        <v>2621</v>
+        <v>2641</v>
       </c>
       <c r="E1050" s="3" t="s">
         <v>14</v>
@@ -38051,10 +38441,22 @@
       <c r="G1050" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="J1050" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1051">
+      <c r="A1051" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1051" s="3" t="s">
+        <v>2642</v>
+      </c>
       <c r="D1051" s="3" t="s">
-        <v>2622</v>
+        <v>2643</v>
       </c>
       <c r="E1051" s="3" t="s">
         <v>29</v>
@@ -38065,10 +38467,22 @@
       <c r="G1051" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="J1051" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1052">
+      <c r="A1052" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1052" s="3" t="s">
+        <v>2644</v>
+      </c>
       <c r="D1052" s="3" t="s">
-        <v>2623</v>
+        <v>2645</v>
       </c>
       <c r="E1052" s="3" t="s">
         <v>59</v>
@@ -38082,10 +38496,22 @@
       <c r="H1052" s="3" t="s">
         <v>670</v>
       </c>
+      <c r="J1052" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1053">
+      <c r="A1053" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1053" s="3" t="s">
+        <v>2646</v>
+      </c>
       <c r="D1053" s="3" t="s">
-        <v>2624</v>
+        <v>2647</v>
       </c>
       <c r="E1053" s="3" t="s">
         <v>14</v>
@@ -38096,10 +38522,22 @@
       <c r="G1053" s="3" t="s">
         <v>860</v>
       </c>
+      <c r="J1053" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1054">
+      <c r="A1054" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1054" s="3" t="s">
+        <v>2648</v>
+      </c>
       <c r="D1054" s="3" t="s">
-        <v>2625</v>
+        <v>2649</v>
       </c>
       <c r="E1054" s="3" t="s">
         <v>78</v>
@@ -38108,15 +38546,27 @@
         <v>1975.0</v>
       </c>
       <c r="G1054" s="3" t="s">
-        <v>2626</v>
+        <v>2650</v>
       </c>
       <c r="H1054" s="3" t="s">
-        <v>2627</v>
+        <v>2651</v>
+      </c>
+      <c r="J1054" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1055">
+      <c r="A1055" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1055" s="3" t="s">
+        <v>2652</v>
+      </c>
       <c r="D1055" s="3" t="s">
-        <v>2628</v>
+        <v>2653</v>
       </c>
       <c r="E1055" s="3" t="s">
         <v>78</v>
@@ -38127,10 +38577,22 @@
       <c r="G1055" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="J1055" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1056">
+      <c r="A1056" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1056" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1056" s="3" t="s">
+        <v>2654</v>
+      </c>
       <c r="D1056" s="3" t="s">
-        <v>2629</v>
+        <v>2655</v>
       </c>
       <c r="E1056" s="3" t="s">
         <v>78</v>
@@ -38139,10 +38601,13 @@
         <v>1975.0</v>
       </c>
       <c r="G1056" s="3" t="s">
-        <v>2627</v>
+        <v>2651</v>
       </c>
       <c r="H1056" s="3" t="s">
-        <v>2626</v>
+        <v>2650</v>
+      </c>
+      <c r="J1056" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1057">
